--- a/testcase1.xlsx
+++ b/testcase1.xlsx
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
